--- a/test-page/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/test-page/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-13T12:21:48+00:00</t>
+    <t>2024-09-13T13:09:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/test-page/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/test-page/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-13T13:09:48+00:00</t>
+    <t>2024-09-13T13:57:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/test-page/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/test-page/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-13T13:57:40+00:00</t>
+    <t>2024-09-16T07:30:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/test-page/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/test-page/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T07:30:20+00:00</t>
+    <t>2024-09-16T07:42:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/test-page/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/test-page/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T07:42:16+00:00</t>
+    <t>2025-01-14T13:38:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1491,7 +1491,7 @@
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R5/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R5/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R5/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>

--- a/test-page/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/test-page/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T13:38:58+00:00</t>
+    <t>2025-01-17T14:32:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/test-page/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/test-page/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-17T14:32:11+00:00</t>
+    <t>2025-01-17T14:33:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
